--- a/Lab3_Uzduotys.xlsx
+++ b/Lab3_Uzduotys.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\Laboras3\Laboras3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVAStuff\Laboras3DaiGri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studentai" sheetId="7" r:id="rId1"/>
@@ -1344,7 +1344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1437,8 +1437,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1460,6 +1468,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1589,12 +1602,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1664,35 +1678,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1704,9 +1694,46 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2046,24 +2073,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="5"/>
-    <col min="7" max="7" width="9.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5"/>
-    <col min="9" max="9" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" style="5"/>
+    <col min="7" max="7" width="9.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="5"/>
+    <col min="9" max="9" width="3.33203125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -2089,7 +2116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2115,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2150,7 +2177,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2185,7 +2212,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2220,7 +2247,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2253,7 +2280,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2288,7 +2315,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2314,7 +2341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2346,7 +2373,7 @@
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -2378,7 +2405,7 @@
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2407,7 +2434,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2432,11 +2459,11 @@
       <c r="H12" s="24">
         <v>4</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="38" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2462,7 +2489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2488,7 +2515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -2514,7 +2541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2540,7 +2567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -2566,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2592,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2618,7 +2645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2644,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2670,7 +2697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2696,7 +2723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2722,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2748,7 +2775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2774,7 +2801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2800,7 +2827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2826,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2852,7 +2879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2878,7 +2905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2904,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2930,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2956,7 +2983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2982,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -3008,7 +3035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -3034,7 +3061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -3060,7 +3087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -3086,7 +3113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -3112,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -3138,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -3164,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -3190,7 +3217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -3216,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -3242,7 +3269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -3268,7 +3295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -3294,7 +3321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -3320,7 +3347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -3346,7 +3373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -3372,7 +3399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -3398,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -3424,7 +3451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -3450,7 +3477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -3476,7 +3503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -3502,7 +3529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -3528,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -3554,7 +3581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -3580,7 +3607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -3606,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -3632,7 +3659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -3658,7 +3685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -3684,7 +3711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -3710,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -3736,7 +3763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -3762,7 +3789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -3788,7 +3815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -3814,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -3840,7 +3867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -3866,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -3892,7 +3919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -3918,7 +3945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9">
         <v>69</v>
       </c>
@@ -3944,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -3970,7 +3997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -3996,7 +4023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -4022,7 +4049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -4048,7 +4075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -4074,7 +4101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -4100,7 +4127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -4126,7 +4153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -4152,7 +4179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -4178,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -4204,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -4230,7 +4257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -4256,7 +4283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -4282,7 +4309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -4308,7 +4335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -4334,7 +4361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -4360,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -4386,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -4412,7 +4439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -4438,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -4464,7 +4491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -4490,7 +4517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -4516,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="18">
         <v>92</v>
       </c>
@@ -4542,7 +4569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -4568,7 +4595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -4594,7 +4621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -4620,7 +4647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -4646,7 +4673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -4672,7 +4699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -4698,7 +4725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -4724,7 +4751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -4750,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -4776,7 +4803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -4802,7 +4829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -4828,7 +4855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -4854,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -4880,7 +4907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -4906,7 +4933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -4932,7 +4959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -4958,7 +4985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -4984,7 +5011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -5010,7 +5037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -5036,7 +5063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -5062,7 +5089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="9">
         <v>113</v>
       </c>
@@ -5088,7 +5115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -5114,7 +5141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -5140,7 +5167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -5166,7 +5193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>117</v>
       </c>
@@ -5192,7 +5219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>118</v>
       </c>
@@ -5218,7 +5245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>119</v>
       </c>
@@ -5244,7 +5271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -5270,7 +5297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>121</v>
       </c>
@@ -5296,7 +5323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>122</v>
       </c>
@@ -5322,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -5348,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -5374,7 +5401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -5400,7 +5427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>126</v>
       </c>
@@ -5426,7 +5453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -5452,7 +5479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>128</v>
       </c>
@@ -5478,7 +5505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>129</v>
       </c>
@@ -5504,7 +5531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -5530,7 +5557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -5556,7 +5583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>132</v>
       </c>
@@ -5582,7 +5609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -5608,7 +5635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="18">
         <v>134</v>
       </c>
@@ -5634,7 +5661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>135</v>
       </c>
@@ -5660,7 +5687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>136</v>
       </c>
@@ -5686,7 +5713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>137</v>
       </c>
@@ -5712,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>138</v>
       </c>
@@ -5738,7 +5765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>139</v>
       </c>
@@ -5764,7 +5791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>140</v>
       </c>
@@ -5790,7 +5817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>141</v>
       </c>
@@ -5816,7 +5843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>142</v>
       </c>
@@ -5842,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>143</v>
       </c>
@@ -5868,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>144</v>
       </c>
@@ -5894,7 +5921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>145</v>
       </c>
@@ -5920,7 +5947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>146</v>
       </c>
@@ -5946,7 +5973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>147</v>
       </c>
@@ -5972,7 +5999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>148</v>
       </c>
@@ -5998,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>149</v>
       </c>
@@ -6024,7 +6051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>150</v>
       </c>
@@ -6050,7 +6077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>151</v>
       </c>
@@ -6076,7 +6103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="9">
         <v>152</v>
       </c>
@@ -6102,7 +6129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>153</v>
       </c>
@@ -6128,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>154</v>
       </c>
@@ -6154,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>155</v>
       </c>
@@ -6180,7 +6207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>156</v>
       </c>
@@ -6206,7 +6233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>157</v>
       </c>
@@ -6232,7 +6259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>158</v>
       </c>
@@ -6258,7 +6285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -6284,7 +6311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -6310,7 +6337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -6336,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>162</v>
       </c>
@@ -6362,7 +6389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -6388,7 +6415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -6414,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>165</v>
       </c>
@@ -6440,7 +6467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>166</v>
       </c>
@@ -6466,7 +6493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>167</v>
       </c>
@@ -6492,7 +6519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>168</v>
       </c>
@@ -6518,7 +6545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>169</v>
       </c>
@@ -6544,7 +6571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>170</v>
       </c>
@@ -6570,7 +6597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>171</v>
       </c>
@@ -6596,7 +6623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="8">
         <v>172</v>
       </c>
@@ -6622,7 +6649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="18">
         <v>173</v>
       </c>
@@ -6648,7 +6675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>174</v>
       </c>
@@ -6674,7 +6701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>175</v>
       </c>
@@ -6700,7 +6727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>176</v>
       </c>
@@ -6726,7 +6753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>177</v>
       </c>
@@ -6752,7 +6779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>178</v>
       </c>
@@ -6778,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>179</v>
       </c>
@@ -6804,7 +6831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
         <v>180</v>
       </c>
@@ -6830,7 +6857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>181</v>
       </c>
@@ -6856,7 +6883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>182</v>
       </c>
@@ -6882,7 +6909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
         <v>183</v>
       </c>
@@ -6908,7 +6935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>184</v>
       </c>
@@ -6934,7 +6961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>185</v>
       </c>
@@ -6960,7 +6987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
         <v>186</v>
       </c>
@@ -6986,7 +7013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>187</v>
       </c>
@@ -7012,7 +7039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>188</v>
       </c>
@@ -7038,7 +7065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
         <v>189</v>
       </c>
@@ -7064,7 +7091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>190</v>
       </c>
@@ -7090,7 +7117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>191</v>
       </c>
@@ -7116,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="9">
         <v>192</v>
       </c>
@@ -7142,7 +7169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>193</v>
       </c>
@@ -7168,7 +7195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
         <v>194</v>
       </c>
@@ -7194,7 +7221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
         <v>195</v>
       </c>
@@ -7220,7 +7247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>196</v>
       </c>
@@ -7246,7 +7273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -7272,7 +7299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
         <v>198</v>
       </c>
@@ -7298,7 +7325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
         <v>199</v>
       </c>
@@ -7324,7 +7351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>200</v>
       </c>
@@ -7350,7 +7377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>201</v>
       </c>
@@ -7376,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>202</v>
       </c>
@@ -7402,7 +7429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
         <v>203</v>
       </c>
@@ -7428,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
         <v>204</v>
       </c>
@@ -7454,7 +7481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>205</v>
       </c>
@@ -7480,7 +7507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
         <v>206</v>
       </c>
@@ -7506,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
         <v>207</v>
       </c>
@@ -7532,7 +7559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>208</v>
       </c>
@@ -7558,7 +7585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>209</v>
       </c>
@@ -7584,7 +7611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="8">
         <v>210</v>
       </c>
@@ -7610,7 +7637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="18">
         <v>211</v>
       </c>
@@ -7636,7 +7663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>212</v>
       </c>
@@ -7662,7 +7689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
         <v>213</v>
       </c>
@@ -7688,7 +7715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>214</v>
       </c>
@@ -7714,7 +7741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
         <v>215</v>
       </c>
@@ -7740,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>216</v>
       </c>
@@ -7766,7 +7793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>217</v>
       </c>
@@ -7792,7 +7819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>218</v>
       </c>
@@ -7818,7 +7845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
         <v>219</v>
       </c>
@@ -7844,7 +7871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>220</v>
       </c>
@@ -7870,7 +7897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>221</v>
       </c>
@@ -7896,7 +7923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>222</v>
       </c>
@@ -7922,7 +7949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>223</v>
       </c>
@@ -7948,7 +7975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>224</v>
       </c>
@@ -7974,7 +8001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>225</v>
       </c>
@@ -8000,7 +8027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>226</v>
       </c>
@@ -8026,7 +8053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>227</v>
       </c>
@@ -8052,7 +8079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>228</v>
       </c>
@@ -8078,7 +8105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>229</v>
       </c>
@@ -8104,7 +8131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>230</v>
       </c>
@@ -8130,7 +8157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="9">
         <v>231</v>
       </c>
@@ -8156,7 +8183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>232</v>
       </c>
@@ -8182,7 +8209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>233</v>
       </c>
@@ -8208,7 +8235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>234</v>
       </c>
@@ -8234,7 +8261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>235</v>
       </c>
@@ -8260,7 +8287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>236</v>
       </c>
@@ -8286,7 +8313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>237</v>
       </c>
@@ -8312,7 +8339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>238</v>
       </c>
@@ -8338,7 +8365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
         <v>239</v>
       </c>
@@ -8364,7 +8391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>240</v>
       </c>
@@ -8390,7 +8417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>241</v>
       </c>
@@ -8416,7 +8443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>242</v>
       </c>
@@ -8442,7 +8469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
         <v>243</v>
       </c>
@@ -8468,7 +8495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>244</v>
       </c>
@@ -8494,7 +8521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>245</v>
       </c>
@@ -8520,7 +8547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
         <v>246</v>
       </c>
@@ -8546,7 +8573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>247</v>
       </c>
@@ -8572,7 +8599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="8">
         <v>248</v>
       </c>
@@ -8598,7 +8625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="18">
         <v>249</v>
       </c>
@@ -8624,7 +8651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>250</v>
       </c>
@@ -8650,7 +8677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>251</v>
       </c>
@@ -8676,7 +8703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
         <v>252</v>
       </c>
@@ -8702,7 +8729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
         <v>253</v>
       </c>
@@ -8728,7 +8755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>254</v>
       </c>
@@ -8754,7 +8781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
         <v>255</v>
       </c>
@@ -8780,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>256</v>
       </c>
@@ -8806,7 +8833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
         <v>257</v>
       </c>
@@ -8832,7 +8859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>258</v>
       </c>
@@ -8858,7 +8885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
         <v>259</v>
       </c>
@@ -8884,7 +8911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
         <v>260</v>
       </c>
@@ -8910,7 +8937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
         <v>261</v>
       </c>
@@ -8936,7 +8963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
         <v>262</v>
       </c>
@@ -8962,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
         <v>263</v>
       </c>
@@ -8988,7 +9015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
         <v>264</v>
       </c>
@@ -9014,7 +9041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
         <v>265</v>
       </c>
@@ -9040,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
         <v>266</v>
       </c>
@@ -9066,7 +9093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="9">
         <v>267</v>
       </c>
@@ -9092,7 +9119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>268</v>
       </c>
@@ -9118,7 +9145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
         <v>269</v>
       </c>
@@ -9144,7 +9171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>270</v>
       </c>
@@ -9170,7 +9197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
         <v>271</v>
       </c>
@@ -9196,7 +9223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
         <v>272</v>
       </c>
@@ -9222,7 +9249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>273</v>
       </c>
@@ -9248,7 +9275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>274</v>
       </c>
@@ -9274,7 +9301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
         <v>275</v>
       </c>
@@ -9300,7 +9327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>276</v>
       </c>
@@ -9326,7 +9353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
         <v>277</v>
       </c>
@@ -9352,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
         <v>278</v>
       </c>
@@ -9378,7 +9405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
         <v>279</v>
       </c>
@@ -9404,7 +9431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>280</v>
       </c>
@@ -9430,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
         <v>281</v>
       </c>
@@ -9456,7 +9483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>282</v>
       </c>
@@ -9482,7 +9509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>283</v>
       </c>
@@ -9508,7 +9535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
         <v>284</v>
       </c>
@@ -9534,7 +9561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
         <v>285</v>
       </c>
@@ -9560,7 +9587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
         <v>286</v>
       </c>
@@ -9586,7 +9613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
         <v>287</v>
       </c>
@@ -9612,7 +9639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
         <v>288</v>
       </c>
@@ -9638,7 +9665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="8">
         <v>289</v>
       </c>
@@ -9664,7 +9691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="18">
         <v>290</v>
       </c>
@@ -9690,7 +9717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
         <v>291</v>
       </c>
@@ -9716,7 +9743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
         <v>292</v>
       </c>
@@ -9742,7 +9769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="8">
         <v>293</v>
       </c>
@@ -9768,7 +9795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
         <v>294</v>
       </c>
@@ -9794,7 +9821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
         <v>295</v>
       </c>
@@ -9820,7 +9847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="8">
         <v>296</v>
       </c>
@@ -9846,7 +9873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="8">
         <v>297</v>
       </c>
@@ -9872,7 +9899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="8">
         <v>298</v>
       </c>
@@ -9898,7 +9925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="8">
         <v>299</v>
       </c>
@@ -9924,7 +9951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
         <v>300</v>
       </c>
@@ -9950,7 +9977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="8">
         <v>301</v>
       </c>
@@ -9976,7 +10003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="8">
         <v>302</v>
       </c>
@@ -10002,7 +10029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="8">
         <v>303</v>
       </c>
@@ -10028,7 +10055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
         <v>304</v>
       </c>
@@ -10054,7 +10081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
         <v>305</v>
       </c>
@@ -10080,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="8">
         <v>306</v>
       </c>
@@ -10106,7 +10133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="8">
         <v>307</v>
       </c>
@@ -10132,7 +10159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="9">
         <v>308</v>
       </c>
@@ -10158,7 +10185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="8">
         <v>309</v>
       </c>
@@ -10184,7 +10211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="8">
         <v>310</v>
       </c>
@@ -10210,7 +10237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="8">
         <v>311</v>
       </c>
@@ -10236,7 +10263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="8">
         <v>312</v>
       </c>
@@ -10262,7 +10289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="8">
         <v>313</v>
       </c>
@@ -10288,7 +10315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="8">
         <v>314</v>
       </c>
@@ -10314,7 +10341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="8">
         <v>315</v>
       </c>
@@ -10340,7 +10367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="8">
         <v>316</v>
       </c>
@@ -10366,7 +10393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="8">
         <v>317</v>
       </c>
@@ -10392,7 +10419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="8">
         <v>318</v>
       </c>
@@ -10418,7 +10445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="8">
         <v>319</v>
       </c>
@@ -10444,7 +10471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="8">
         <v>320</v>
       </c>
@@ -10470,7 +10497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="8">
         <v>321</v>
       </c>
@@ -10496,7 +10523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="8">
         <v>322</v>
       </c>
@@ -10522,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="8">
         <v>323</v>
       </c>
@@ -10548,7 +10575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="8">
         <v>324</v>
       </c>
@@ -10574,7 +10601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="8">
         <v>325</v>
       </c>
@@ -10600,7 +10627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="8">
         <v>326</v>
       </c>
@@ -10626,7 +10653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="8">
         <v>327</v>
       </c>
@@ -10652,7 +10679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="18">
         <v>328</v>
       </c>
@@ -10678,7 +10705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="8">
         <v>329</v>
       </c>
@@ -10704,7 +10731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="8">
         <v>330</v>
       </c>
@@ -10730,7 +10757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="8">
         <v>331</v>
       </c>
@@ -10756,7 +10783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="8">
         <v>332</v>
       </c>
@@ -10782,7 +10809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="8">
         <v>333</v>
       </c>
@@ -10808,7 +10835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="8">
         <v>334</v>
       </c>
@@ -10834,7 +10861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="8">
         <v>335</v>
       </c>
@@ -10860,7 +10887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="8">
         <v>336</v>
       </c>
@@ -10886,7 +10913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="8">
         <v>337</v>
       </c>
@@ -10912,7 +10939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="8">
         <v>338</v>
       </c>
@@ -10938,7 +10965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="8">
         <v>339</v>
       </c>
@@ -10964,7 +10991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="8">
         <v>340</v>
       </c>
@@ -10990,7 +11017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="8">
         <v>341</v>
       </c>
@@ -11016,7 +11043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="8">
         <v>342</v>
       </c>
@@ -11042,7 +11069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="8">
         <v>343</v>
       </c>
@@ -11068,7 +11095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="8">
         <v>344</v>
       </c>
@@ -11094,7 +11121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="8">
         <v>345</v>
       </c>
@@ -11120,7 +11147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="8">
         <v>346</v>
       </c>
@@ -11146,7 +11173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="8">
         <v>347</v>
       </c>
@@ -11172,7 +11199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="9">
         <v>348</v>
       </c>
@@ -11198,7 +11225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="8">
         <v>349</v>
       </c>
@@ -11224,7 +11251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="8">
         <v>350</v>
       </c>
@@ -11250,7 +11277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="8">
         <v>351</v>
       </c>
@@ -11276,7 +11303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="8">
         <v>352</v>
       </c>
@@ -11302,7 +11329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="9">
         <v>353</v>
       </c>
@@ -11342,22 +11369,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26:B27"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="133.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="133.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -11368,353 +11395,345 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="46">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38" t="s">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
-        <v>2</v>
-      </c>
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="46">
+        <v>2</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38" t="s">
+    <row r="5" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>3</v>
-      </c>
-      <c r="B6" s="33" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="46">
+        <v>3</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="33"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>4</v>
-      </c>
-      <c r="B8" s="33" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="46">
+        <v>4</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="33"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="46">
         <v>5</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="42" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="34"/>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="46">
         <v>6</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="38" t="s">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="46"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="46">
         <v>7</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="33"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="46"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="46">
         <v>8</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38" t="s">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="46"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="46">
         <v>9</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="36" t="s">
+      <c r="B18" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="38" t="s">
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="46"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="46">
         <v>10</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="42" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="34"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
-        <v>11</v>
-      </c>
-      <c r="B22" s="34" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="46">
+        <v>11</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="34"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="46">
         <v>12</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="42" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="34"/>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="46"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="46">
         <v>13</v>
       </c>
-      <c r="B26" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="41" t="s">
+      <c r="B26" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="38" t="s">
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="46"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
-        <v>14</v>
-      </c>
-      <c r="B28" s="33" t="s">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="46">
+        <v>14</v>
+      </c>
+      <c r="B28" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="33"/>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="46"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="31">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="46">
         <v>15</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="33"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="46"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="31">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="46">
         <v>16</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="33"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="46"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="46">
         <v>17</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="33"/>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="46"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="45"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="45"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="45"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="45"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="45"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="45"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="45"/>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A36:A37"/>
@@ -11731,13 +11750,21 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11752,15 +11779,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -11768,45 +11795,45 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="45"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
-        <v>2</v>
-      </c>
-      <c r="B4" s="43" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="35"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -11823,7 +11850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>

--- a/Lab3_Uzduotys.xlsx
+++ b/Lab3_Uzduotys.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVAStuff\Laboras3DaiGri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\Laboras3\Laboras3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studentai" sheetId="7" r:id="rId1"/>
@@ -1608,7 +1608,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1694,8 +1694,35 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1703,32 +1730,11 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2078,19 +2084,19 @@
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" style="5"/>
-    <col min="7" max="7" width="9.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="5"/>
-    <col min="9" max="9" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="9.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="9" max="9" width="3.28515625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2142,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2177,7 +2183,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2212,7 +2218,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2247,7 +2253,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2280,7 +2286,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2315,7 +2321,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2341,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2373,7 +2379,7 @@
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -2405,7 +2411,7 @@
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2567,7 +2573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2619,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2645,7 +2651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2697,7 +2703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2723,7 +2729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2827,7 +2833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2879,7 +2885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2905,7 +2911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -3009,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -3087,7 +3093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -3113,7 +3119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -3139,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -3165,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -3217,7 +3223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -3243,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -3269,7 +3275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -3295,7 +3301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -3321,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -3347,7 +3353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -3425,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -3477,7 +3483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -3503,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -3529,7 +3535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -3555,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -3581,7 +3587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -3607,7 +3613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -3633,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -3659,7 +3665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -3685,7 +3691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -3711,7 +3717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -3737,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -3763,7 +3769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -3789,7 +3795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -3841,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -3867,7 +3873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -3919,7 +3925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -3945,7 +3951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>69</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -3997,7 +4003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -4023,7 +4029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -4049,7 +4055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -4075,7 +4081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -4101,7 +4107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -4127,7 +4133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -4153,7 +4159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -4179,7 +4185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -4205,7 +4211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -4231,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -4257,7 +4263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -4309,7 +4315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -4335,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -4361,7 +4367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -4387,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -4413,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -4439,7 +4445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -4465,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -4491,7 +4497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -4517,7 +4523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -4543,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="18">
         <v>92</v>
       </c>
@@ -4569,7 +4575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -4595,7 +4601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -4621,7 +4627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -4647,7 +4653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -4673,7 +4679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -4699,7 +4705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -4725,7 +4731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -4751,7 +4757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -4777,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -4803,7 +4809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -4829,7 +4835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -4855,7 +4861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -4881,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -4907,7 +4913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -4933,7 +4939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -4959,7 +4965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -4985,7 +4991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -5011,7 +5017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -5037,7 +5043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -5063,7 +5069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9">
         <v>113</v>
       </c>
@@ -5115,7 +5121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -5141,7 +5147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -5167,7 +5173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -5193,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>117</v>
       </c>
@@ -5219,7 +5225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>118</v>
       </c>
@@ -5245,7 +5251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>119</v>
       </c>
@@ -5271,7 +5277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -5297,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>121</v>
       </c>
@@ -5323,7 +5329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>122</v>
       </c>
@@ -5349,7 +5355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -5375,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -5401,7 +5407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -5427,7 +5433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>126</v>
       </c>
@@ -5453,7 +5459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -5479,7 +5485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>128</v>
       </c>
@@ -5505,7 +5511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>129</v>
       </c>
@@ -5531,7 +5537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -5557,7 +5563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -5583,7 +5589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>132</v>
       </c>
@@ -5609,7 +5615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -5635,7 +5641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="18">
         <v>134</v>
       </c>
@@ -5661,7 +5667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>135</v>
       </c>
@@ -5687,7 +5693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>136</v>
       </c>
@@ -5713,7 +5719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>137</v>
       </c>
@@ -5739,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>138</v>
       </c>
@@ -5765,7 +5771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>139</v>
       </c>
@@ -5791,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>140</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>141</v>
       </c>
@@ -5843,7 +5849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>142</v>
       </c>
@@ -5869,7 +5875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>143</v>
       </c>
@@ -5895,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>144</v>
       </c>
@@ -5921,7 +5927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>145</v>
       </c>
@@ -5947,7 +5953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>146</v>
       </c>
@@ -5973,7 +5979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>147</v>
       </c>
@@ -5999,7 +6005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>148</v>
       </c>
@@ -6025,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>149</v>
       </c>
@@ -6051,7 +6057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>150</v>
       </c>
@@ -6077,7 +6083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>151</v>
       </c>
@@ -6103,7 +6109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9">
         <v>152</v>
       </c>
@@ -6129,7 +6135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>153</v>
       </c>
@@ -6155,7 +6161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>154</v>
       </c>
@@ -6181,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>155</v>
       </c>
@@ -6207,7 +6213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>156</v>
       </c>
@@ -6233,7 +6239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>157</v>
       </c>
@@ -6259,7 +6265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>158</v>
       </c>
@@ -6285,7 +6291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -6311,7 +6317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -6337,7 +6343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -6363,7 +6369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>162</v>
       </c>
@@ -6389,7 +6395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -6415,7 +6421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -6441,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>165</v>
       </c>
@@ -6467,7 +6473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>166</v>
       </c>
@@ -6493,7 +6499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>167</v>
       </c>
@@ -6519,7 +6525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>168</v>
       </c>
@@ -6545,7 +6551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>169</v>
       </c>
@@ -6571,7 +6577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>170</v>
       </c>
@@ -6597,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>171</v>
       </c>
@@ -6623,7 +6629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>172</v>
       </c>
@@ -6649,7 +6655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="18">
         <v>173</v>
       </c>
@@ -6675,7 +6681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>174</v>
       </c>
@@ -6701,7 +6707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>175</v>
       </c>
@@ -6727,7 +6733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>176</v>
       </c>
@@ -6753,7 +6759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>177</v>
       </c>
@@ -6779,7 +6785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>178</v>
       </c>
@@ -6805,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>179</v>
       </c>
@@ -6831,7 +6837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>180</v>
       </c>
@@ -6857,7 +6863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>181</v>
       </c>
@@ -6883,7 +6889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>182</v>
       </c>
@@ -6909,7 +6915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>183</v>
       </c>
@@ -6935,7 +6941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>184</v>
       </c>
@@ -6961,7 +6967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>185</v>
       </c>
@@ -6987,7 +6993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>186</v>
       </c>
@@ -7013,7 +7019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>187</v>
       </c>
@@ -7039,7 +7045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>188</v>
       </c>
@@ -7065,7 +7071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>189</v>
       </c>
@@ -7091,7 +7097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>190</v>
       </c>
@@ -7117,7 +7123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>191</v>
       </c>
@@ -7143,7 +7149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9">
         <v>192</v>
       </c>
@@ -7169,7 +7175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>193</v>
       </c>
@@ -7195,7 +7201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>194</v>
       </c>
@@ -7221,7 +7227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>195</v>
       </c>
@@ -7247,7 +7253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>196</v>
       </c>
@@ -7273,7 +7279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -7299,7 +7305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>198</v>
       </c>
@@ -7325,7 +7331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>199</v>
       </c>
@@ -7351,7 +7357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>200</v>
       </c>
@@ -7377,7 +7383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>201</v>
       </c>
@@ -7403,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>202</v>
       </c>
@@ -7429,7 +7435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>203</v>
       </c>
@@ -7455,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>204</v>
       </c>
@@ -7481,7 +7487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>205</v>
       </c>
@@ -7507,7 +7513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>206</v>
       </c>
@@ -7533,7 +7539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
         <v>207</v>
       </c>
@@ -7559,7 +7565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>208</v>
       </c>
@@ -7585,7 +7591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>209</v>
       </c>
@@ -7611,7 +7617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="8">
         <v>210</v>
       </c>
@@ -7637,7 +7643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="18">
         <v>211</v>
       </c>
@@ -7663,7 +7669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>212</v>
       </c>
@@ -7689,7 +7695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>213</v>
       </c>
@@ -7715,7 +7721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>214</v>
       </c>
@@ -7741,7 +7747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>215</v>
       </c>
@@ -7767,7 +7773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>216</v>
       </c>
@@ -7793,7 +7799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>217</v>
       </c>
@@ -7819,7 +7825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>218</v>
       </c>
@@ -7845,7 +7851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
         <v>219</v>
       </c>
@@ -7871,7 +7877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>220</v>
       </c>
@@ -7897,7 +7903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>221</v>
       </c>
@@ -7923,7 +7929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>222</v>
       </c>
@@ -7949,7 +7955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>223</v>
       </c>
@@ -7975,7 +7981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>224</v>
       </c>
@@ -8001,7 +8007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>225</v>
       </c>
@@ -8027,7 +8033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>226</v>
       </c>
@@ -8053,7 +8059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>227</v>
       </c>
@@ -8079,7 +8085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
         <v>228</v>
       </c>
@@ -8105,7 +8111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>229</v>
       </c>
@@ -8131,7 +8137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>230</v>
       </c>
@@ -8157,7 +8163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9">
         <v>231</v>
       </c>
@@ -8183,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>232</v>
       </c>
@@ -8209,7 +8215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>233</v>
       </c>
@@ -8235,7 +8241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
         <v>234</v>
       </c>
@@ -8261,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
         <v>235</v>
       </c>
@@ -8287,7 +8293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>236</v>
       </c>
@@ -8313,7 +8319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
         <v>237</v>
       </c>
@@ -8339,7 +8345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>238</v>
       </c>
@@ -8365,7 +8371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>239</v>
       </c>
@@ -8391,7 +8397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>240</v>
       </c>
@@ -8417,7 +8423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>241</v>
       </c>
@@ -8443,7 +8449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>242</v>
       </c>
@@ -8469,7 +8475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>243</v>
       </c>
@@ -8495,7 +8501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>244</v>
       </c>
@@ -8521,7 +8527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>245</v>
       </c>
@@ -8547,7 +8553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
         <v>246</v>
       </c>
@@ -8573,7 +8579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
         <v>247</v>
       </c>
@@ -8599,7 +8605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>248</v>
       </c>
@@ -8625,7 +8631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="18">
         <v>249</v>
       </c>
@@ -8651,7 +8657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
         <v>250</v>
       </c>
@@ -8677,7 +8683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
         <v>251</v>
       </c>
@@ -8703,7 +8709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>252</v>
       </c>
@@ -8729,7 +8735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>253</v>
       </c>
@@ -8755,7 +8761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>254</v>
       </c>
@@ -8781,7 +8787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
         <v>255</v>
       </c>
@@ -8807,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>256</v>
       </c>
@@ -8833,7 +8839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
         <v>257</v>
       </c>
@@ -8859,7 +8865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
         <v>258</v>
       </c>
@@ -8885,7 +8891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
         <v>259</v>
       </c>
@@ -8911,7 +8917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
         <v>260</v>
       </c>
@@ -8937,7 +8943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
         <v>261</v>
       </c>
@@ -8963,7 +8969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>262</v>
       </c>
@@ -8989,7 +8995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>263</v>
       </c>
@@ -9015,7 +9021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>264</v>
       </c>
@@ -9041,7 +9047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>265</v>
       </c>
@@ -9067,7 +9073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
         <v>266</v>
       </c>
@@ -9093,7 +9099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="9">
         <v>267</v>
       </c>
@@ -9119,7 +9125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
         <v>268</v>
       </c>
@@ -9145,7 +9151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>269</v>
       </c>
@@ -9171,7 +9177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
         <v>270</v>
       </c>
@@ -9197,7 +9203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
         <v>271</v>
       </c>
@@ -9223,7 +9229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>272</v>
       </c>
@@ -9249,7 +9255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>273</v>
       </c>
@@ -9275,7 +9281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>274</v>
       </c>
@@ -9301,7 +9307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
         <v>275</v>
       </c>
@@ -9327,7 +9333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>276</v>
       </c>
@@ -9353,7 +9359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
         <v>277</v>
       </c>
@@ -9379,7 +9385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
         <v>278</v>
       </c>
@@ -9405,7 +9411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
         <v>279</v>
       </c>
@@ -9431,7 +9437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>280</v>
       </c>
@@ -9457,7 +9463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>281</v>
       </c>
@@ -9483,7 +9489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>282</v>
       </c>
@@ -9509,7 +9515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>283</v>
       </c>
@@ -9535,7 +9541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
         <v>284</v>
       </c>
@@ -9561,7 +9567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
         <v>285</v>
       </c>
@@ -9587,7 +9593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>286</v>
       </c>
@@ -9613,7 +9619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
         <v>287</v>
       </c>
@@ -9639,7 +9645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
         <v>288</v>
       </c>
@@ -9665,7 +9671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="8">
         <v>289</v>
       </c>
@@ -9691,7 +9697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="18">
         <v>290</v>
       </c>
@@ -9717,7 +9723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
         <v>291</v>
       </c>
@@ -9743,7 +9749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
         <v>292</v>
       </c>
@@ -9769,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
         <v>293</v>
       </c>
@@ -9795,7 +9801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>294</v>
       </c>
@@ -9821,7 +9827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>295</v>
       </c>
@@ -9847,7 +9853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
         <v>296</v>
       </c>
@@ -9873,7 +9879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>297</v>
       </c>
@@ -9899,7 +9905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
         <v>298</v>
       </c>
@@ -9925,7 +9931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
         <v>299</v>
       </c>
@@ -9951,7 +9957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
         <v>300</v>
       </c>
@@ -9977,7 +9983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
         <v>301</v>
       </c>
@@ -10003,7 +10009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>302</v>
       </c>
@@ -10029,7 +10035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>303</v>
       </c>
@@ -10055,7 +10061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>304</v>
       </c>
@@ -10081,7 +10087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
         <v>305</v>
       </c>
@@ -10107,7 +10113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
         <v>306</v>
       </c>
@@ -10133,7 +10139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
         <v>307</v>
       </c>
@@ -10159,7 +10165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="9">
         <v>308</v>
       </c>
@@ -10185,7 +10191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
         <v>309</v>
       </c>
@@ -10211,7 +10217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
         <v>310</v>
       </c>
@@ -10237,7 +10243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
         <v>311</v>
       </c>
@@ -10263,7 +10269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
         <v>312</v>
       </c>
@@ -10289,7 +10295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
         <v>313</v>
       </c>
@@ -10315,7 +10321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
         <v>314</v>
       </c>
@@ -10341,7 +10347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
         <v>315</v>
       </c>
@@ -10367,7 +10373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
         <v>316</v>
       </c>
@@ -10393,7 +10399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
         <v>317</v>
       </c>
@@ -10419,7 +10425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
         <v>318</v>
       </c>
@@ -10445,7 +10451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
         <v>319</v>
       </c>
@@ -10471,7 +10477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
         <v>320</v>
       </c>
@@ -10497,7 +10503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
         <v>321</v>
       </c>
@@ -10523,7 +10529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
         <v>322</v>
       </c>
@@ -10549,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
         <v>323</v>
       </c>
@@ -10575,7 +10581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
         <v>324</v>
       </c>
@@ -10601,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
         <v>325</v>
       </c>
@@ -10627,7 +10633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
         <v>326</v>
       </c>
@@ -10653,7 +10659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="8">
         <v>327</v>
       </c>
@@ -10679,7 +10685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="18">
         <v>328</v>
       </c>
@@ -10705,7 +10711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
         <v>329</v>
       </c>
@@ -10731,7 +10737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
         <v>330</v>
       </c>
@@ -10757,7 +10763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
         <v>331</v>
       </c>
@@ -10783,7 +10789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
         <v>332</v>
       </c>
@@ -10809,7 +10815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
         <v>333</v>
       </c>
@@ -10835,7 +10841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
         <v>334</v>
       </c>
@@ -10861,7 +10867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
         <v>335</v>
       </c>
@@ -10887,7 +10893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
         <v>336</v>
       </c>
@@ -10913,7 +10919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
         <v>337</v>
       </c>
@@ -10939,7 +10945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>338</v>
       </c>
@@ -10965,7 +10971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
         <v>339</v>
       </c>
@@ -10991,7 +10997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
         <v>340</v>
       </c>
@@ -11017,7 +11023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
         <v>341</v>
       </c>
@@ -11043,7 +11049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
         <v>342</v>
       </c>
@@ -11069,7 +11075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
         <v>343</v>
       </c>
@@ -11095,7 +11101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
         <v>344</v>
       </c>
@@ -11121,7 +11127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
         <v>345</v>
       </c>
@@ -11147,7 +11153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
         <v>346</v>
       </c>
@@ -11173,7 +11179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
         <v>347</v>
       </c>
@@ -11199,7 +11205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="9">
         <v>348</v>
       </c>
@@ -11225,7 +11231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
         <v>349</v>
       </c>
@@ -11251,7 +11257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
         <v>350</v>
       </c>
@@ -11277,7 +11283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
         <v>351</v>
       </c>
@@ -11303,7 +11309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
         <v>352</v>
       </c>
@@ -11329,7 +11335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="9">
         <v>353</v>
       </c>
@@ -11371,20 +11377,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="133.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="133.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -11395,345 +11401,353 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="46">
-        <v>1</v>
-      </c>
-      <c r="B2" s="47" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="41">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50" t="s">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="46">
-        <v>2</v>
-      </c>
-      <c r="B4" s="47" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50" t="s">
+    <row r="5" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
-        <v>3</v>
-      </c>
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>3</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="39"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="46">
-        <v>4</v>
-      </c>
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>4</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="39"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
         <v>5</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46"/>
-      <c r="B11" s="42"/>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="46">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
         <v>6</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="46"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="32" t="s">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="46">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
         <v>7</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
-      <c r="B15" s="39"/>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="46">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
         <v>8</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="49" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="46"/>
-      <c r="B17" s="41"/>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="41"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="46">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="41">
         <v>9</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="46"/>
-      <c r="B19" s="44"/>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="41"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="46">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="41">
         <v>10</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="42"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="46">
-        <v>11</v>
-      </c>
-      <c r="B22" s="42" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="41">
+        <v>11</v>
+      </c>
+      <c r="B22" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="42"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="46">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="41">
         <v>12</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="46"/>
-      <c r="B25" s="42"/>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="46">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="41">
         <v>13</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="46"/>
-      <c r="B27" s="44"/>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46">
-        <v>14</v>
-      </c>
-      <c r="B28" s="39" t="s">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41">
+        <v>14</v>
+      </c>
+      <c r="B28" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
-      <c r="B29" s="39"/>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="46">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="41">
         <v>15</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="39"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="46">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="41">
         <v>16</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="39"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41">
         <v>17</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
-      <c r="B35" s="39"/>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A36:A37"/>
@@ -11750,21 +11764,13 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11779,15 +11785,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -11795,7 +11801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
         <v>1</v>
       </c>
@@ -11814,7 +11820,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
         <v>2</v>
       </c>
@@ -11833,7 +11839,7 @@
       <c r="F4" s="35"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -11850,7 +11856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>

--- a/Lab3_Uzduotys.xlsx
+++ b/Lab3_Uzduotys.xlsx
@@ -1344,7 +1344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,13 +1432,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1446,7 +1439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1463,11 +1456,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1602,13 +1590,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1678,6 +1665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1685,31 +1673,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1724,22 +1697,17 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2465,7 +2433,7 @@
       <c r="H12" s="24">
         <v>4</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="31" t="s">
         <v>438</v>
       </c>
     </row>
@@ -11377,7 +11345,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12:C13"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11402,46 +11370,46 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
-        <v>1</v>
-      </c>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="35">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="40" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
-        <v>2</v>
-      </c>
-      <c r="B4" s="43" t="s">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
-        <v>3</v>
-      </c>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="35">
+        <v>3</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -11449,17 +11417,17 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
-        <v>4</v>
-      </c>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="35">
+        <v>4</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -11467,17 +11435,17 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="35">
         <v>5</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="39" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -11485,35 +11453,35 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="A12" s="35">
         <v>6</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="40" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+      <c r="A14" s="35">
         <v>7</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -11521,53 +11489,53 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+      <c r="A16" s="35">
         <v>8</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="32" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
+      <c r="A18" s="35">
         <v>9</v>
       </c>
-      <c r="B18" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="31" t="s">
+      <c r="B18" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="32" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
+      <c r="A20" s="35">
         <v>10</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="39" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -11575,17 +11543,17 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
-        <v>11</v>
-      </c>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="35">
+        <v>11</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -11593,17 +11561,17 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="41">
+      <c r="A24" s="35">
         <v>12</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="39" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -11611,35 +11579,35 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="41">
+      <c r="A26" s="35">
         <v>13</v>
       </c>
-      <c r="B26" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="33" t="s">
+      <c r="B26" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="32" t="s">
+      <c r="A27" s="35"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41">
-        <v>14</v>
-      </c>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="35">
+        <v>14</v>
+      </c>
+      <c r="B28" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -11647,17 +11615,17 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="41">
+      <c r="A30" s="35">
         <v>15</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -11665,17 +11633,17 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="41">
+      <c r="A32" s="35">
         <v>16</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -11683,17 +11651,17 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41">
+      <c r="A34" s="35">
         <v>17</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -11701,35 +11669,35 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="46"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="36"/>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="36"/>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="36"/>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="36"/>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="36"/>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="36"/>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="36"/>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -11782,7 +11750,7 @@
   <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11802,42 +11770,42 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34">
-        <v>1</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34">
-        <v>2</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="43">
+        <v>2</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="37"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">

--- a/Lab3_Uzduotys.xlsx
+++ b/Lab3_Uzduotys.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\Laboras3\Laboras3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVAStuff\Laboras3DaiGri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studentai" sheetId="7" r:id="rId1"/>
@@ -1673,11 +1673,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1688,23 +1693,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -2047,24 +2047,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P354"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="5"/>
-    <col min="7" max="7" width="9.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5"/>
-    <col min="9" max="9" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" style="5"/>
+    <col min="7" max="7" width="9.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="5"/>
+    <col min="9" max="9" width="3.33203125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2151,7 +2151,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2289,7 +2289,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -2379,7 +2379,7 @@
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9">
         <v>69</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="18">
         <v>92</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="9">
         <v>113</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>117</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>118</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>119</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>121</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>122</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>126</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>128</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>129</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>132</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="18">
         <v>134</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>135</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>136</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>137</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>138</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>139</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>140</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>141</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>142</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>143</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>144</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>145</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>146</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>147</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>148</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>149</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>150</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>151</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="9">
         <v>152</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>153</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>154</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>155</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>156</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>157</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>158</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>162</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>165</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>166</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>167</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>168</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>169</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>170</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>171</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="8">
         <v>172</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="18">
         <v>173</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>174</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>175</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>176</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>177</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>178</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>179</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
         <v>180</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>181</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>182</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
         <v>183</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>184</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>185</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
         <v>186</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>187</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>188</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
         <v>189</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>190</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>191</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="9">
         <v>192</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>193</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
         <v>194</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
         <v>195</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>196</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
         <v>198</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
         <v>199</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>200</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>201</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>202</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
         <v>203</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
         <v>204</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>205</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
         <v>206</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
         <v>207</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>208</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>209</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="8">
         <v>210</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="18">
         <v>211</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>212</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
         <v>213</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>214</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
         <v>215</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>216</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>217</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>218</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
         <v>219</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>220</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>221</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>222</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>223</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>224</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>225</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>226</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>227</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>228</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>229</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>230</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="9">
         <v>231</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>232</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>233</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>234</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>235</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>236</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>237</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>238</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
         <v>239</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>240</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>241</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>242</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
         <v>243</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>244</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>245</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
         <v>246</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>247</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="8">
         <v>248</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="18">
         <v>249</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>250</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>251</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
         <v>252</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
         <v>253</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>254</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
         <v>255</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>256</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
         <v>257</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>258</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
         <v>259</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
         <v>260</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
         <v>261</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
         <v>262</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
         <v>263</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
         <v>264</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
         <v>265</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
         <v>266</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="9">
         <v>267</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>268</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
         <v>269</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>270</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
         <v>271</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
         <v>272</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>273</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>274</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
         <v>275</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>276</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
         <v>277</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
         <v>278</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
         <v>279</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>280</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
         <v>281</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>282</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>283</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
         <v>284</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
         <v>285</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
         <v>286</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
         <v>287</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
         <v>288</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="8">
         <v>289</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="18">
         <v>290</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
         <v>291</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
         <v>292</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="8">
         <v>293</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
         <v>294</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
         <v>295</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="8">
         <v>296</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="8">
         <v>297</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="8">
         <v>298</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="8">
         <v>299</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
         <v>300</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="8">
         <v>301</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="8">
         <v>302</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="8">
         <v>303</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
         <v>304</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
         <v>305</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="8">
         <v>306</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="8">
         <v>307</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="9">
         <v>308</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="8">
         <v>309</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="8">
         <v>310</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="8">
         <v>311</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="8">
         <v>312</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="8">
         <v>313</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="8">
         <v>314</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="8">
         <v>315</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="8">
         <v>316</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="8">
         <v>317</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="8">
         <v>318</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="8">
         <v>319</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="8">
         <v>320</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="8">
         <v>321</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="8">
         <v>322</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="8">
         <v>323</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="8">
         <v>324</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="8">
         <v>325</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="8">
         <v>326</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="8">
         <v>327</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="18">
         <v>328</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="8">
         <v>329</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="8">
         <v>330</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="8">
         <v>331</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="8">
         <v>332</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="8">
         <v>333</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="8">
         <v>334</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="8">
         <v>335</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="8">
         <v>336</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="8">
         <v>337</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="8">
         <v>338</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="8">
         <v>339</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="8">
         <v>340</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="8">
         <v>341</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="8">
         <v>342</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="8">
         <v>343</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="8">
         <v>344</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="8">
         <v>345</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="8">
         <v>346</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="8">
         <v>347</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="9">
         <v>348</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="8">
         <v>349</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="8">
         <v>350</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="8">
         <v>351</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="8">
         <v>352</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="9">
         <v>353</v>
       </c>
@@ -11344,21 +11344,21 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16:B17"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="133.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="133.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -11369,353 +11369,345 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="46">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="38"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
-        <v>2</v>
-      </c>
-      <c r="B4" s="37" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="46">
+        <v>2</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="38"/>
+    <row r="5" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="46"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
-        <v>3</v>
-      </c>
-      <c r="B6" s="40" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="46">
+        <v>3</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="40"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
-        <v>4</v>
-      </c>
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="46">
+        <v>4</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="40"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="46">
         <v>5</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="42" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="39"/>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="46">
         <v>6</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="42"/>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="46"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="46">
         <v>7</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="40"/>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="46"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="46">
         <v>8</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="38"/>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="46"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="46">
         <v>9</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="42"/>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="46"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="46">
         <v>10</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="42" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="39"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
-        <v>11</v>
-      </c>
-      <c r="B22" s="39" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="46">
+        <v>11</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="39"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="46">
         <v>12</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="42" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="39"/>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="46"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="46">
         <v>13</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="42"/>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="46"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35">
-        <v>14</v>
-      </c>
-      <c r="B28" s="40" t="s">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="46">
+        <v>14</v>
+      </c>
+      <c r="B28" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="40"/>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="46"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="46">
         <v>15</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="40"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="46"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="46">
         <v>16</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="40"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="46"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="46">
         <v>17</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="40"/>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="46"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="45"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="45"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="45"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="45"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="45"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="45"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="45"/>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A36:A37"/>
@@ -11732,13 +11724,21 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11753,15 +11753,15 @@
       <selection activeCell="A3" sqref="A3:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -11769,45 +11769,45 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3" s="44" t="s">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43">
-        <v>2</v>
-      </c>
-      <c r="B4" s="44" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="46"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="36"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
